--- a/guide.xlsx
+++ b/guide.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Usuarios\Chris\Documentos\GitHub\wind-turbine-vr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E2751A-7648-47EF-86C3-6FDAD74392AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD73FDA0-A5C0-4187-B674-15E251A15044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8145" yWindow="3060" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>¡Bienvenido al modo guía de Wind Turbine VR!</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>Cuando esté preparado, pulse continuar.</t>
+  </si>
+  <si>
+    <t>Antes de entrar al aerogenerador, es indispensable hacer uso de los accesorios de seguridad.</t>
   </si>
 </sst>
 </file>
@@ -366,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,6 +403,11 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/guide.xlsx
+++ b/guide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Usuarios\Chris\Documentos\GitHub\wind-turbine-vr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD73FDA0-A5C0-4187-B674-15E251A15044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4B6CA5-28B4-4B9E-B4A4-F2E294BF55A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8145" yWindow="3060" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="2700" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>¡Bienvenido al modo guía de Wind Turbine VR!</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>Antes de entrar al aerogenerador, es indispensable hacer uso de los accesorios de seguridad.</t>
+  </si>
+  <si>
+    <t>A la izquierda puede encontrar un panel (azul) de información.</t>
+  </si>
+  <si>
+    <t>Algunos paneles aparecerán si se acerca lo suficiente a una zona de interés.</t>
+  </si>
+  <si>
+    <t>Otros aparecerán cuando apunte hacia determinadas partes del aerogenerador.</t>
+  </si>
+  <si>
+    <t>Dichas partes se iluminarán cuando sea posible interactuar con ellas. También se dejarán ver a través de obstáculos.</t>
   </si>
 </sst>
 </file>
@@ -369,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,6 +420,20 @@
         <v>8</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/guide.xlsx
+++ b/guide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Usuarios\Chris\Documentos\GitHub\wind-turbine-vr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4B6CA5-28B4-4B9E-B4A4-F2E294BF55A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC502BB-2DAE-4EE6-A4D6-9DA0A13DCB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="2700" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="495" yWindow="1905" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>¡Bienvenido al modo guía de Wind Turbine VR!</t>
   </si>
@@ -64,6 +64,30 @@
   </si>
   <si>
     <t>Dichas partes se iluminarán cuando sea posible interactuar con ellas. También se dejarán ver a través de obstáculos.</t>
+  </si>
+  <si>
+    <t>Vamos a repasar los controles.</t>
+  </si>
+  <si>
+    <t>Para desplazarse utilice el joystick izquierdo. Para rotar, mueva el joystick derecho hacia los lados.</t>
+  </si>
+  <si>
+    <t>Para pulsar los botones de las interfaces utilice los gatillos de los mandos.</t>
+  </si>
+  <si>
+    <t>Para agarrar objetos, utilice el botón de agarre. Este botón varía un poco en función del dispositivo, pero por lo general se pulsa haciendo la acción de agarrar el propio mando.</t>
+  </si>
+  <si>
+    <t>Los controles que vienen a continuación se ven reflejados en sus manos. Le recomendamos que se las mire mientras continúa este tutorial.</t>
+  </si>
+  <si>
+    <t>Si desea avanzar más rápidamente, puede teletransportarse utilizando el joystick derecho. Muévalo hacia adelante y manténgalo mientras apunta hacia donde quiere ir.</t>
+  </si>
+  <si>
+    <t>Cuando haya elegido donde quiere ir, suelte el joystick. Algunas superficies no tienen permitido la teletransportación, como muebles o maquinaria.</t>
+  </si>
+  <si>
+    <t>Por último, puede abrir el menú de muñeca pulsando el botón secundario de su mando derecho.</t>
   </si>
 </sst>
 </file>
@@ -381,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,20 +441,46 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>

--- a/guide.xlsx
+++ b/guide.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Usuarios\Chris\Documentos\GitHub\wind-turbine-vr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC502BB-2DAE-4EE6-A4D6-9DA0A13DCB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E324833-CA61-4829-81F8-0210F5741D39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="1905" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1515" yWindow="2100" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>¡Bienvenido al modo guía de Wind Turbine VR!</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Este modo le enseñará a seguir los procedimientos de seguridad para entrar a un aerogenerador y desplazarse por él.</t>
   </si>
@@ -84,10 +81,31 @@
     <t>Si desea avanzar más rápidamente, puede teletransportarse utilizando el joystick derecho. Muévalo hacia adelante y manténgalo mientras apunta hacia donde quiere ir.</t>
   </si>
   <si>
-    <t>Cuando haya elegido donde quiere ir, suelte el joystick. Algunas superficies no tienen permitido la teletransportación, como muebles o maquinaria.</t>
-  </si>
-  <si>
     <t>Por último, puede abrir el menú de muñeca pulsando el botón secundario de su mando derecho.</t>
+  </si>
+  <si>
+    <t>¡Bienvenido al modo guía de Wind Turbine VR! Utilice el mando para apuntar hacia el botón y pulse el gatillo.</t>
+  </si>
+  <si>
+    <t>Cuando haya elegido donde quiere ir, suelte el joystick. Algunas superficies no tienen permitida la teletransportación, como muebles o maquinaria.</t>
+  </si>
+  <si>
+    <t>Dentro de la base del aerogenerador podemos encontrar un transformador. Pruebe a interactuar con él.</t>
+  </si>
+  <si>
+    <t>A continuación, vamos a realizar una pequeña maniobra de subida por la escalera.</t>
+  </si>
+  <si>
+    <t>El dispositivo que se encuentra al otro extremo de la cuerda que ha enganchado a su arnés, va también enganchado a la línea de vida (cable azul junto a la escalera).</t>
+  </si>
+  <si>
+    <t>Este le permite desplazarse de forma segura en ambas direcciones. Si se suelta de la escalera, el dispositivo frenará la caída.</t>
+  </si>
+  <si>
+    <t>En caso de soltarse de la escalera, no tiene más que volverse a agarrar a ella y subir un poco para desactivar el freno.</t>
+  </si>
+  <si>
+    <t>Comencemos el procedimiento.</t>
   </si>
 </sst>
 </file>
@@ -405,83 +423,105 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
         <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
